--- a/techniqo/data_new_ticker/IRCTC.xlsx
+++ b/techniqo/data_new_ticker/IRCTC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8506,6 +8506,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1375</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1388</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1361.15</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1369.8</v>
+      </c>
+      <c r="F233" t="n">
+        <v>298472</v>
+      </c>
+      <c r="G233" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1377</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1367.4</v>
+      </c>
+      <c r="F234" t="n">
+        <v>232143</v>
+      </c>
+      <c r="G234" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/IRCTC.xlsx
+++ b/techniqo/data_new_ticker/IRCTC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8556,6 +8556,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1361</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1374.1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1359</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1370.7</v>
+      </c>
+      <c r="F235" t="n">
+        <v>330915</v>
+      </c>
+      <c r="G235" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1370.7</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1405.35</v>
+      </c>
+      <c r="F236" t="n">
+        <v>753209</v>
+      </c>
+      <c r="G236" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
